--- a/results/antgrppitbb.xlsx
+++ b/results/antgrppitbb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmb21/Documents/Papers/HLPP2019/5c9a48ac1625513e446f5241/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECD4B50-2C7B-F14F-9DBB-8023267E21D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EB5BB-36A2-F54D-A7D8-73B825DC02A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15980" yWindow="-28340" windowWidth="43380" windowHeight="26720" xr2:uid="{E3E554A7-5A97-C948-BB11-6EA97B393E0C}"/>
   </bookViews>
@@ -371,40 +371,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13595E2-C9C5-BD43-864B-6260E770B251}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>59.165700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>58.801600000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>60.370800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>58.719499999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>D3/B6</f>
+        <v>1.0254885826940181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>58.739800000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>D3/B12</f>
+        <v>1.9734901382372787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>58.924799999999998</v>
       </c>
@@ -412,33 +429,75 @@
         <f>SUM(A2:A6)/5</f>
         <v>58.870280000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>D3/B18</f>
+        <v>3.8039537407044755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>D3/B24</f>
+        <v>5.525405361869443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30.452999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f>D3/B30</f>
+        <v>7.3152768632624818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30.560300000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>D3/B36</f>
+        <v>9.1065666873322808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30.335799999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f>D3/B42</f>
+        <v>10.941071953494628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30.779499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f>D3/B48</f>
+        <v>12.743149882533229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30.825800000000001</v>
       </c>
@@ -446,33 +505,75 @@
         <f>SUM(A8:A12)/5</f>
         <v>30.590879999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f>D3/B54</f>
+        <v>14.461221826502133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <f>D3/B60</f>
+        <v>16.33011442018989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16.1465</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f>D3/B66</f>
+        <v>17.933383872109964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15.6899</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>D3/B72</f>
+        <v>19.728594089147098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15.887499999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f>D3/B78</f>
+        <v>21.508871713055434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15.632300000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <f>D3/B84</f>
+        <v>23.031038271378872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15.996499999999999</v>
       </c>
@@ -480,33 +581,40 @@
         <f>SUM(A14:A18)/5</f>
         <v>15.87054</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <f>D3/B90</f>
+        <v>23.900689733805986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10.854799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10.9557</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11.0305</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10.929399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10.8598</v>
       </c>
@@ -515,32 +623,32 @@
         <v>10.926039999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8.2915399999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8.2378999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8.2246799999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8.2887199999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8.2206700000000001</v>
       </c>
@@ -549,12 +657,12 @@
         <v>8.2527019999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6.6381399999999999</v>
       </c>
